--- a/EveToBMW/Template/230612_Cell Format for Test.xlsx
+++ b/EveToBMW/Template/230612_Cell Format for Test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108E48F-9D04-4D41-AC0D-9FD0762829EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF604C-2C23-4D41-B9B6-35F65EAFFC80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="340">
   <si>
     <t>No</t>
   </si>
@@ -1212,6 +1212,10 @@
   </si>
   <si>
     <t>WMS&amp;MES接口字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_supplier_resistance_ac_mw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1554,15 +1558,39 @@
     <xf numFmtId="178" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,30 +1610,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1895,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1914,98 +1918,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="85.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="42" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="44"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="52"/>
       <c r="AW1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2014,26 +2018,26 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="38.549999999999997" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>107</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>73</v>
@@ -3181,6 +3185,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3193,16 +3207,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:AS1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
